--- a/KN1D.xlsx
+++ b/KN1D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/cbecerraa_uni_pe/Documents/0001_W&amp;M_KN1D/KN1D - Version Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5151E45E-282A-4295-A72A-942AE461D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5151E45E-282A-4295-A72A-942AE461D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7C4295-D6B4-4EFB-9E59-BD4E43287E89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B23A4BD-614A-4729-AD4A-F24377A39CE5}"/>
   </bookViews>
@@ -314,12 +314,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -328,38 +328,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <name val="Amasis MT Pro"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Amasis MT Pro"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -393,6 +361,38 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Amasis MT Pro"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <name val="Amasis MT Pro"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -407,14 +407,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{501BD42F-D147-429E-A3B7-B8D85EAA8EC8}" name="Tabla1" displayName="Tabla1" ref="C2:D49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{501BD42F-D147-429E-A3B7-B8D85EAA8EC8}" name="Tabla1" displayName="Tabla1" ref="C2:D49" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="C2:D49" xr:uid="{501BD42F-D147-429E-A3B7-B8D85EAA8EC8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D62">
     <sortCondition ref="C2:C62"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4098D47B-1C4D-42D1-B97F-944F36FB5106}" name="Function" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{514AC344-D526-414E-888B-D5180C9437C4}" name="Development (%)" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{4098D47B-1C4D-42D1-B97F-944F36FB5106}" name="Function" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{514AC344-D526-414E-888B-D5180C9437C4}" name="Development (%)" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -740,7 +740,7 @@
   <dimension ref="C2:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
